--- a/Test_Plan.xlsx
+++ b/Test_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StephenG24\Desktop\GITHUB REPO\MobileProjectDevDiary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21291F1-F04B-4D6A-9407-50893F63A649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E43784-6026-4304-B195-AA3EAD7FF6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="175">
   <si>
     <t>Revision History</t>
   </si>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t>TC.031</t>
+  </si>
+  <si>
+    <t>TC.032</t>
+  </si>
+  <si>
+    <t>TileSpawner</t>
+  </si>
+  <si>
+    <t>prefab tiles will spawn infront of player and destroy behind player</t>
+  </si>
+  <si>
+    <t>play each scene and tests does each prefab tiles will spawn infront of player and destroy behind player and check script</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1037,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1643,7 +1676,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,6 +2704,36 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>29</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>161</v>
@@ -2682,37 +2745,48 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J32 J35:J1048576">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
+  <conditionalFormatting sqref="J1:J32 J36:J1048576">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Invalid Test">
       <formula>NOT(ISERROR(SEARCH("Invalid Test",J34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J34)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Invalid Test">
+      <formula>NOT(ISERROR(SEARCH("Invalid Test",J35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J35)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3036,18 +3110,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3268,18 +3342,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
